--- a/resource/QDC01_B_Modbus规约_20250414.xlsx
+++ b/resource/QDC01_B_Modbus规约_20250414.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12200"/>
+    <workbookView windowWidth="27950" windowHeight="12400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="94">
   <si>
     <t>1、波特率:115200bps</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Helvetica"/>
+        <charset val="0"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -40,7 +46,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>、硬件通讯接口方式：</t>
@@ -50,7 +55,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>485</t>
@@ -60,7 +64,6 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>接口通讯</t>
@@ -68,6 +71,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>3、采用主从方式，屏幕</t>
     </r>
     <r>
@@ -132,6 +141,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>读输出寄存器</t>
     </r>
     <r>
@@ -170,6 +186,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>查询</t>
     </r>
     <r>
@@ -250,6 +273,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>读输入寄存器</t>
     </r>
     <r>
@@ -300,6 +330,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>写单个输出寄存器</t>
     </r>
     <r>
@@ -346,6 +383,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>写多个输出寄存器</t>
     </r>
     <r>
@@ -453,6 +497,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">外部信号接入状态：
 </t>
     </r>
@@ -482,6 +534,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>风速</t>
     </r>
     <r>
@@ -543,6 +603,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>220V_OUT开关使能：</t>
     </r>
     <r>
@@ -563,6 +631,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">同步状态：
 </t>
     </r>
@@ -579,12 +655,25 @@
     </r>
   </si>
   <si>
+    <t>[9:15]</t>
+  </si>
+  <si>
+    <t>1:允许写模式
+0：不允许写模式</t>
+  </si>
+  <si>
     <t>模式</t>
+  </si>
+  <si>
+    <t>[2:7]</t>
+  </si>
+  <si>
+    <t>[0:1]</t>
   </si>
   <si>
     <t>001:节能
 010:普通
-100:强劲</t>
+011:强劲</t>
   </si>
   <si>
     <t>报警温度</t>
@@ -626,7 +715,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -819,7 +907,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
   </fonts>
@@ -1357,6 +1444,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1427,19 +1527,6 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -1722,7 +1809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1825,9 +1912,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1835,12 +1919,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1864,16 +1942,10 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1882,20 +1954,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1903,16 +1969,13 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1921,61 +1984,46 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2002,16 +2050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2034,12 +2073,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2572,10 +2605,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64:G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2586,9 +2619,10 @@
     <col min="6" max="6" width="9.83636363636364" customWidth="1"/>
     <col min="7" max="7" width="10.7272727272727" customWidth="1"/>
     <col min="10" max="10" width="9.34545454545455" customWidth="1"/>
+    <col min="11" max="11" width="17.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2600,7 +2634,7 @@
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -2612,7 +2646,7 @@
       <c r="G2" s="7"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:8">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2624,7 +2658,7 @@
       <c r="G3" s="9"/>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:8">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -2650,9 +2684,9 @@
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="N5" s="58"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:14">
+      <c r="N5" s="51"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
@@ -2668,9 +2702,9 @@
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
-      <c r="N6" s="59"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="1:10">
+      <c r="N6" s="52"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A7" s="14" t="s">
         <v>5</v>
       </c>
@@ -2681,10 +2715,10 @@
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="61"/>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:10">
+      <c r="I7" s="40"/>
+      <c r="J7" s="53"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A8" s="15" t="s">
         <v>6</v>
       </c>
@@ -2696,9 +2730,9 @@
       <c r="G8" s="16"/>
       <c r="H8" s="17"/>
       <c r="I8" s="30"/>
-      <c r="J8" s="62"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:10">
+      <c r="J8" s="54"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A9" s="18" t="s">
         <v>7</v>
       </c>
@@ -2724,25 +2758,25 @@
         <v>14</v>
       </c>
       <c r="I9" s="30"/>
-      <c r="J9" s="62"/>
+      <c r="J9" s="54"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="99" t="s">
+      <c r="D10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="99" t="s">
+      <c r="E10" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F10" s="83" t="s">
         <v>18</v>
       </c>
       <c r="G10" s="20" t="s">
@@ -2752,9 +2786,9 @@
         <v>19</v>
       </c>
       <c r="I10" s="30"/>
-      <c r="J10" s="62"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:10">
+      <c r="J10" s="54"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A11" s="22" t="s">
         <v>20</v>
       </c>
@@ -2766,9 +2800,9 @@
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
-      <c r="J11" s="63"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:10">
+      <c r="J11" s="55"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A12" s="24" t="s">
         <v>7</v>
       </c>
@@ -2796,16 +2830,16 @@
       <c r="I12" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="J12" s="61"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:10">
+      <c r="J12" s="53"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="100" t="s">
+      <c r="B13" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="100" t="s">
+      <c r="C13" s="84" t="s">
         <v>26</v>
       </c>
       <c r="D13" s="18">
@@ -2826,7 +2860,7 @@
       <c r="I13" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="64"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A14" s="27"/>
@@ -2838,9 +2872,9 @@
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
-      <c r="J14" s="65"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:14">
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A15" s="13" t="s">
         <v>29</v>
       </c>
@@ -2856,9 +2890,9 @@
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="59"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:10">
+      <c r="N15" s="52"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
@@ -2869,10 +2903,10 @@
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="65"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:10">
+      <c r="I16" s="58"/>
+      <c r="J16" s="57"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A17" s="15" t="s">
         <v>31</v>
       </c>
@@ -2883,10 +2917,10 @@
       <c r="F17" s="28"/>
       <c r="G17" s="28"/>
       <c r="H17" s="29"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="65"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:10">
+      <c r="I17" s="58"/>
+      <c r="J17" s="57"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A18" s="18" t="s">
         <v>7</v>
       </c>
@@ -2911,26 +2945,26 @@
       <c r="H18" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I18" s="66"/>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:10">
+      <c r="I18" s="58"/>
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="99" t="s">
+      <c r="B19" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="99" t="s">
+      <c r="D19" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="99" t="s">
+      <c r="F19" s="83" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -2939,10 +2973,10 @@
       <c r="H19" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I19" s="66"/>
-      <c r="J19" s="65"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:10">
+      <c r="I19" s="58"/>
+      <c r="J19" s="57"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A20" s="30" t="s">
         <v>34</v>
       </c>
@@ -2953,10 +2987,10 @@
       <c r="F20" s="30"/>
       <c r="G20" s="30"/>
       <c r="H20" s="30"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="65"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:10">
+      <c r="I20" s="54"/>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A21" s="24" t="s">
         <v>7</v>
       </c>
@@ -2979,17 +3013,17 @@
         <v>14</v>
       </c>
       <c r="H21" s="31"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="65"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:10">
+      <c r="I21" s="59"/>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="84" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="18">
@@ -3005,20 +3039,20 @@
         <v>19</v>
       </c>
       <c r="H22" s="33"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="65"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="57"/>
     </row>
     <row r="23" s="1" customFormat="1" ht="15" spans="1:10">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="65"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="57"/>
     </row>
     <row r="24" s="1" customFormat="1" ht="15" customHeight="1" spans="1:14">
       <c r="A24" s="13" t="s">
@@ -3036,9 +3070,9 @@
       <c r="K24" s="13"/>
       <c r="L24" s="13"/>
       <c r="M24" s="13"/>
-      <c r="N24" s="59"/>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:10">
+      <c r="N24" s="52"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A25" s="14" t="s">
         <v>36</v>
       </c>
@@ -3049,162 +3083,162 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="65"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:10">
-      <c r="A26" s="35" t="s">
+      <c r="I25" s="59"/>
+      <c r="J25" s="57"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A26" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="67"/>
-      <c r="J26" s="65"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:10">
-      <c r="A27" s="38" t="s">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="57"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A27" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="38" t="s">
+      <c r="B27" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="38" t="s">
+      <c r="C27" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="38" t="s">
+      <c r="D27" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E27" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F27" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H27" s="38" t="s">
+      <c r="H27" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I27" s="67"/>
-      <c r="J27" s="69"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:10">
-      <c r="A28" s="38" t="s">
+      <c r="I27" s="59"/>
+      <c r="J27" s="61"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A28" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E28" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I28" s="70"/>
-      <c r="J28" s="69"/>
-    </row>
-    <row r="29" s="1" customFormat="1" spans="1:10">
-      <c r="A29" s="39" t="s">
+      <c r="I28" s="40"/>
+      <c r="J28" s="61"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A29" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="65"/>
-    </row>
-    <row r="30" s="1" customFormat="1" spans="1:10">
-      <c r="A30" s="38" t="s">
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A30" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="38" t="s">
+      <c r="B30" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="38" t="s">
+      <c r="C30" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="38" t="s">
+      <c r="D30" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="38" t="s">
+      <c r="H30" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="71"/>
-      <c r="J30" s="65"/>
-    </row>
-    <row r="31" s="1" customFormat="1" spans="1:10">
-      <c r="A31" s="41" t="s">
+      <c r="I30" s="42"/>
+      <c r="J30" s="57"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A31" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="102" t="s">
+      <c r="B31" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="102" t="s">
+      <c r="D31" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G31" s="41" t="s">
+      <c r="G31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I31" s="68"/>
-      <c r="J31" s="65"/>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:10">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="72"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:14">
+      <c r="I31" s="60"/>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="62"/>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="15" spans="1:14">
       <c r="A33" s="13" t="s">
         <v>43</v>
       </c>
@@ -3220,45 +3254,45 @@
       <c r="K33" s="13"/>
       <c r="L33" s="13"/>
       <c r="M33" s="13"/>
-      <c r="N33" s="59"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:10">
-      <c r="A34" s="42" t="s">
+      <c r="N33" s="52"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A34" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="72"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:14">
-      <c r="A35" s="39" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="62"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="15" spans="1:14">
+      <c r="A35" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B35" s="39"/>
-      <c r="C35" s="39"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="73"/>
-      <c r="N35" s="74"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:14">
-      <c r="A36" s="43" t="s">
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="64"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="15" spans="1:14">
+      <c r="A36" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="24" t="s">
@@ -3273,94 +3307,94 @@
       <c r="F36" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G36" s="44" t="s">
+      <c r="G36" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="43" t="s">
+      <c r="H36" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="I36" s="43" t="s">
+      <c r="I36" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="J36" s="43" t="s">
+      <c r="J36" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="K36" s="43" t="s">
+      <c r="K36" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="L36" s="43" t="s">
+      <c r="L36" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="M36" s="75" t="s">
+      <c r="M36" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="N36" s="76"/>
+      <c r="N36" s="66"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="15" spans="1:14">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="45">
+      <c r="B37" s="42">
         <v>10</v>
       </c>
-      <c r="C37" s="103" t="s">
+      <c r="C37" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="103" t="s">
+      <c r="D37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="103" t="s">
+      <c r="E37" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="103" t="s">
+      <c r="F37" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="G37" s="103" t="s">
+      <c r="G37" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="H37" s="103" t="s">
+      <c r="H37" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="I37" s="45" t="s">
+      <c r="I37" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="J37" s="104" t="s">
+      <c r="J37" s="87" t="s">
         <v>33</v>
       </c>
-      <c r="K37" s="105" t="s">
+      <c r="K37" s="87" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="78" t="s">
+      <c r="L37" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="M37" s="79" t="s">
+      <c r="M37" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="76"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:14">
-      <c r="A38" s="39" t="s">
+      <c r="N37" s="66"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="15" spans="1:14">
+      <c r="A38" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
-      <c r="L38" s="40"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="81"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:10">
-      <c r="A39" s="43" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="37"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="69"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A39" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="43" t="s">
+      <c r="B39" s="40" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="24" t="s">
@@ -3375,574 +3409,591 @@
       <c r="F39" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="G39" s="43" t="s">
+      <c r="G39" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="43" t="s">
+      <c r="H39" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="I39" s="82"/>
-      <c r="J39" s="72"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="62"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="15" spans="1:10">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="41">
+      <c r="B40" s="38">
         <v>10</v>
       </c>
-      <c r="C40" s="102" t="s">
+      <c r="C40" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="102" t="s">
+      <c r="D40" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="102" t="s">
+      <c r="E40" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="F40" s="102" t="s">
+      <c r="F40" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="G40" s="41" t="s">
+      <c r="G40" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="41" t="s">
+      <c r="H40" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="I40" s="68"/>
-      <c r="J40" s="72"/>
-    </row>
-    <row r="41" s="1" customFormat="1" spans="1:10">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="72"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="62"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="15" spans="1:10">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="62"/>
     </row>
     <row r="43" ht="15" spans="1:11">
-      <c r="A43" s="46" t="s">
+      <c r="A43" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="46" t="s">
+      <c r="B43" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="46" t="s">
+      <c r="C43" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="D43" s="43" t="s">
         <v>48</v>
       </c>
-      <c r="E43" s="46" t="s">
+      <c r="E43" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="G43" s="47"/>
-      <c r="H43" s="46" t="s">
+      <c r="G43" s="43"/>
+      <c r="H43" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="I43" s="83" t="s">
+      <c r="I43" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="84"/>
-      <c r="K43" s="85" t="s">
+      <c r="J43" s="71"/>
+      <c r="K43" s="72" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="48" t="s">
+      <c r="A44" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="48">
+      <c r="B44" s="44">
         <v>3</v>
       </c>
-      <c r="C44" s="49">
+      <c r="C44" s="45">
         <v>30001</v>
       </c>
-      <c r="D44" s="50" t="s">
+      <c r="D44" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="49" t="s">
+      <c r="E44" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F44" s="51" t="s">
+      <c r="F44" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="51"/>
-      <c r="H44" s="48" t="s">
+      <c r="G44" s="46"/>
+      <c r="H44" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="I44" s="106" t="s">
+      <c r="I44" s="88" t="s">
         <v>26</v>
       </c>
-      <c r="J44" s="87"/>
-      <c r="K44" s="88" t="s">
+      <c r="J44" s="74"/>
+      <c r="K44" s="75" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="49" t="s">
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="51"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="89"/>
-      <c r="J45" s="90"/>
-      <c r="K45" s="88"/>
+      <c r="G45" s="46"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="76"/>
+      <c r="J45" s="77"/>
+      <c r="K45" s="75"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="49">
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="45">
         <v>30002</v>
       </c>
-      <c r="D46" s="53"/>
-      <c r="E46" s="49" t="s">
+      <c r="D46" s="47"/>
+      <c r="E46" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F46" s="51" t="s">
+      <c r="F46" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="G46" s="51"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="90"/>
-      <c r="K46" s="88"/>
+      <c r="G46" s="46"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="76"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="75"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="49" t="s">
+      <c r="A47" s="47"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="48"/>
+      <c r="E47" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F47" s="51" t="s">
+      <c r="F47" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="G47" s="51"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="89"/>
-      <c r="J47" s="90"/>
-      <c r="K47" s="88"/>
+      <c r="G47" s="46"/>
+      <c r="H47" s="47"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="75"/>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="49">
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="45">
         <v>30003</v>
       </c>
-      <c r="D48" s="55" t="s">
+      <c r="D48" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="49" t="s">
+      <c r="E48" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F48" s="51" t="s">
+      <c r="F48" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="G48" s="51"/>
-      <c r="H48" s="52"/>
-      <c r="I48" s="89"/>
-      <c r="J48" s="90"/>
-      <c r="K48" s="88" t="s">
+      <c r="G48" s="46"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="75" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="49" t="s">
+    <row r="49" ht="18" customHeight="1" spans="1:11">
+      <c r="A49" s="47"/>
+      <c r="B49" s="47"/>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45"/>
+      <c r="E49" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F49" s="51" t="s">
+      <c r="F49" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="G49" s="51"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="89"/>
-      <c r="J49" s="90"/>
-      <c r="K49" s="49"/>
+      <c r="G49" s="46"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="45"/>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="48">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="44">
         <v>30004</v>
       </c>
-      <c r="D50" s="48" t="s">
+      <c r="D50" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="49" t="s">
+      <c r="E50" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="51" t="s">
+      <c r="F50" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G50" s="51"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="90"/>
-      <c r="K50" s="48"/>
+      <c r="G50" s="46"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="76"/>
+      <c r="J50" s="77"/>
+      <c r="K50" s="44"/>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
-      <c r="E51" s="49" t="s">
+      <c r="A51" s="47"/>
+      <c r="B51" s="47"/>
+      <c r="C51" s="47"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F51" s="51" t="s">
+      <c r="F51" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G51" s="51"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="52"/>
+      <c r="G51" s="46"/>
+      <c r="H51" s="47"/>
+      <c r="I51" s="76"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="47"/>
     </row>
     <row r="52" ht="45" customHeight="1" spans="1:11">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="56"/>
-      <c r="E52" s="49">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="48"/>
+      <c r="E52" s="45">
         <v>0</v>
       </c>
-      <c r="F52" s="51" t="s">
+      <c r="F52" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="G52" s="51"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="90"/>
-      <c r="K52" s="56"/>
+      <c r="G52" s="46"/>
+      <c r="H52" s="47"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="77"/>
+      <c r="K52" s="48"/>
     </row>
     <row r="53" spans="1:11">
-      <c r="A53" s="48" t="s">
+      <c r="A53" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="48">
+      <c r="B53" s="44">
         <v>4</v>
       </c>
-      <c r="C53" s="49">
+      <c r="C53" s="45">
         <v>40001</v>
       </c>
-      <c r="D53" s="49" t="s">
+      <c r="D53" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="49" t="s">
+      <c r="E53" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="51" t="s">
+      <c r="F53" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G53" s="51"/>
-      <c r="H53" s="48" t="s">
+      <c r="G53" s="46"/>
+      <c r="H53" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="I53" s="107" t="s">
+      <c r="I53" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="107" t="s">
+      <c r="J53" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="K53" s="49" t="s">
+      <c r="K53" s="45" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="54" ht="102" customHeight="1" spans="1:13">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="49" t="s">
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45"/>
+      <c r="E54" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="51" t="s">
+      <c r="F54" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="G54" s="51"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="49"/>
+      <c r="G54" s="46"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="47"/>
+      <c r="J54" s="47"/>
+      <c r="K54" s="45"/>
       <c r="M54" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="55">
+      <c r="A55" s="47"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="45">
         <v>40002</v>
       </c>
-      <c r="D55" s="49" t="s">
+      <c r="D55" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="E55" s="49" t="s">
+      <c r="E55" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="F55" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G55" s="51"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="49"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="47"/>
+      <c r="J55" s="47"/>
+      <c r="K55" s="45"/>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="55"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49" t="s">
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="45"/>
+      <c r="D56" s="45"/>
+      <c r="E56" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F56" s="51" t="s">
+      <c r="F56" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G56" s="51"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
-      <c r="K56" s="49"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="47"/>
+      <c r="J56" s="47"/>
+      <c r="K56" s="45"/>
     </row>
     <row r="57" ht="45" customHeight="1" spans="1:11">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="55"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49">
+      <c r="A57" s="47"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45"/>
+      <c r="E57" s="45">
         <v>0</v>
       </c>
-      <c r="F57" s="51" t="s">
+      <c r="F57" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="G57" s="51"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="52"/>
-      <c r="K57" s="49"/>
+      <c r="G57" s="46"/>
+      <c r="H57" s="47"/>
+      <c r="I57" s="47"/>
+      <c r="J57" s="47"/>
+      <c r="K57" s="45"/>
     </row>
     <row r="58" spans="1:11">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="55">
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="45">
         <v>40003</v>
       </c>
-      <c r="D58" s="49" t="s">
+      <c r="D58" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="E58" s="49" t="s">
+      <c r="E58" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F58" s="51" t="s">
+      <c r="F58" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G58" s="51"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="52"/>
-      <c r="K58" s="91"/>
+      <c r="G58" s="46"/>
+      <c r="H58" s="47"/>
+      <c r="I58" s="47"/>
+      <c r="J58" s="47"/>
+      <c r="K58" s="78"/>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="55"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49" t="s">
+      <c r="A59" s="47"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="F59" s="51"/>
-      <c r="G59" s="51"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="52"/>
-      <c r="K59" s="92"/>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="47"/>
+      <c r="I59" s="47"/>
+      <c r="J59" s="47"/>
+      <c r="K59" s="79"/>
     </row>
     <row r="60" ht="49" customHeight="1" spans="1:11">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49" t="s">
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="F60" s="51" t="s">
+      <c r="F60" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="G60" s="51"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="92"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="47"/>
+      <c r="I60" s="47"/>
+      <c r="J60" s="47"/>
+      <c r="K60" s="79"/>
     </row>
     <row r="61" spans="1:11">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="57">
+      <c r="A61" s="47"/>
+      <c r="B61" s="47"/>
+      <c r="C61" s="45">
         <v>40004</v>
       </c>
-      <c r="D61" s="57" t="s">
+      <c r="D61" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E61" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F61" s="51" t="s">
+      <c r="F61" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G61" s="51"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="52"/>
-      <c r="K61" s="93"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="47"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="79"/>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="55" t="s">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="45"/>
+      <c r="D62" s="45"/>
+      <c r="E62" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="F62" s="51" t="s">
+      <c r="F62" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G62" s="51"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="93"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="47"/>
+      <c r="J62" s="47"/>
+      <c r="K62" s="79"/>
     </row>
     <row r="63" ht="48" customHeight="1" spans="1:11">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="55">
+      <c r="A63" s="47"/>
+      <c r="B63" s="47"/>
+      <c r="C63" s="45"/>
+      <c r="D63" s="45"/>
+      <c r="E63" s="45">
         <v>1</v>
       </c>
-      <c r="F63" s="51" t="s">
+      <c r="F63" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="G63" s="51"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="52"/>
-      <c r="K63" s="93"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="57">
+      <c r="G63" s="46"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="79"/>
+    </row>
+    <row r="64" ht="48" customHeight="1" spans="1:11">
+      <c r="A64" s="47"/>
+      <c r="B64" s="47"/>
+      <c r="C64" s="45"/>
+      <c r="D64" s="45"/>
+      <c r="E64" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F64" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64" s="50"/>
+      <c r="H64" s="47"/>
+      <c r="I64" s="47"/>
+      <c r="J64" s="47"/>
+      <c r="K64" s="80"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="47"/>
+      <c r="B65" s="47"/>
+      <c r="C65" s="45">
         <v>40005</v>
       </c>
-      <c r="D64" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="E64" s="49" t="s">
+      <c r="D65" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="45">
+        <v>8</v>
+      </c>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="47"/>
+      <c r="I65" s="47"/>
+      <c r="J65" s="47"/>
+      <c r="K65" s="44"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="47"/>
+      <c r="B66" s="47"/>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45"/>
+      <c r="E66" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="47"/>
+      <c r="I66" s="47"/>
+      <c r="J66" s="47"/>
+      <c r="K66" s="47"/>
+    </row>
+    <row r="67" ht="43" customHeight="1" spans="1:11">
+      <c r="A67" s="47"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="46"/>
+      <c r="H67" s="47"/>
+      <c r="I67" s="47"/>
+      <c r="J67" s="47"/>
+      <c r="K67" s="48"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="47"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="45">
+        <v>40006</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E68" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="F64" s="51"/>
-      <c r="G64" s="51"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="94"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="52"/>
-      <c r="K65" s="95"/>
-    </row>
-    <row r="66" ht="43" customHeight="1" spans="1:11">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="F66" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="G66" s="51"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="96"/>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="49">
-        <v>40006</v>
-      </c>
-      <c r="D67" s="49" t="s">
-        <v>88</v>
-      </c>
-      <c r="E67" s="49" t="s">
-        <v>56</v>
-      </c>
-      <c r="F67" s="51" t="s">
+      <c r="F68" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="G67" s="51"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="97" t="s">
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
+      <c r="K68" s="81" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="56"/>
-      <c r="B68" s="56"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="49" t="s">
+    <row r="69" spans="1:11">
+      <c r="A69" s="48"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="F68" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="G68" s="51"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="56"/>
-      <c r="K68" s="98"/>
+      <c r="F69" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G69" s="46"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
+      <c r="K69" s="82"/>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="97">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
@@ -3994,10 +4045,11 @@
     <mergeCell ref="F66:G66"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F69:G69"/>
     <mergeCell ref="A44:A52"/>
-    <mergeCell ref="A53:A68"/>
+    <mergeCell ref="A53:A69"/>
     <mergeCell ref="B44:B52"/>
-    <mergeCell ref="B53:B68"/>
+    <mergeCell ref="B53:B69"/>
     <mergeCell ref="C44:C45"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="C48:C49"/>
@@ -4006,8 +4058,8 @@
     <mergeCell ref="C55:C57"/>
     <mergeCell ref="C58:C60"/>
     <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C67:C68"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="C68:C69"/>
     <mergeCell ref="D44:D47"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="D50:D52"/>
@@ -4015,18 +4067,18 @@
     <mergeCell ref="D55:D57"/>
     <mergeCell ref="D58:D60"/>
     <mergeCell ref="D61:D63"/>
-    <mergeCell ref="D64:D66"/>
-    <mergeCell ref="D67:D68"/>
+    <mergeCell ref="D65:D67"/>
+    <mergeCell ref="D68:D69"/>
     <mergeCell ref="H44:H52"/>
-    <mergeCell ref="H53:H68"/>
+    <mergeCell ref="H53:H69"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="I25:I28"/>
     <mergeCell ref="I30:I31"/>
     <mergeCell ref="I39:I40"/>
-    <mergeCell ref="I53:I68"/>
+    <mergeCell ref="I53:I69"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J53:J68"/>
+    <mergeCell ref="J53:J69"/>
     <mergeCell ref="K44:K47"/>
     <mergeCell ref="K48:K49"/>
     <mergeCell ref="K50:K52"/>
@@ -4034,8 +4086,8 @@
     <mergeCell ref="K55:K57"/>
     <mergeCell ref="K58:K60"/>
     <mergeCell ref="K61:K63"/>
-    <mergeCell ref="K64:K66"/>
-    <mergeCell ref="K67:K68"/>
+    <mergeCell ref="K65:K67"/>
+    <mergeCell ref="K68:K69"/>
     <mergeCell ref="N35:N38"/>
     <mergeCell ref="I7:J10"/>
     <mergeCell ref="I44:J52"/>
